--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -4837,13 +4837,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>14392</v>
+        <v>14393</v>
       </c>
       <c r="D87" t="n">
         <v>2776</v>
       </c>
       <c r="E87" t="n">
-        <v>69662774</v>
+        <v>69668520</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -12640,13 +12640,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>21378</v>
+        <v>21379</v>
       </c>
       <c r="D240" t="n">
         <v>4844</v>
       </c>
       <c r="E240" t="n">
-        <v>39860171</v>
+        <v>39860848</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -17230,13 +17230,13 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>24068</v>
+        <v>24069</v>
       </c>
       <c r="D330" t="n">
         <v>4530</v>
       </c>
       <c r="E330" t="n">
-        <v>149828624</v>
+        <v>149830687</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18884</v>
+        <v>18886</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75370883</v>
+        <v>75390235</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>73763</v>
+        <v>73764</v>
       </c>
       <c r="D472" t="n">
         <v>11997</v>
       </c>
       <c r="E472" t="n">
-        <v>387497603</v>
+        <v>387507603</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74998</v>
+        <v>74999</v>
       </c>
       <c r="D474" t="n">
         <v>11550</v>
       </c>
       <c r="E474" t="n">
-        <v>435635809</v>
+        <v>435645809</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416849</v>
+        <v>416857</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725578248</v>
+        <v>725600263</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292247</v>
+        <v>292254</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1773216731</v>
+        <v>1773475672</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230801</v>
+        <v>230808</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1824493037</v>
+        <v>1824535259</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184282</v>
+        <v>184283</v>
       </c>
       <c r="D505" t="n">
         <v>27740</v>
       </c>
       <c r="E505" t="n">
-        <v>332790736</v>
+        <v>332791036</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62276</v>
+        <v>62279</v>
       </c>
       <c r="D509" t="n">
         <v>11318</v>
       </c>
       <c r="E509" t="n">
-        <v>299983793</v>
+        <v>299998072</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71227</v>
+        <v>71230</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287875047</v>
+        <v>287883309</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25087</v>
+        <v>25088</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92608318</v>
+        <v>92615653</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -35845,13 +35845,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>11038</v>
+        <v>11039</v>
       </c>
       <c r="D695" t="n">
         <v>2194</v>
       </c>
       <c r="E695" t="n">
-        <v>48914037</v>
+        <v>49064700</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -40996,13 +40996,13 @@
         </is>
       </c>
       <c r="C796" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="D796" t="n">
         <v>7448</v>
       </c>
       <c r="E796" t="n">
-        <v>210446178</v>
+        <v>210456178</v>
       </c>
       <c r="F796" t="inlineStr">
         <is>
@@ -42169,13 +42169,13 @@
         </is>
       </c>
       <c r="C819" t="n">
-        <v>14928</v>
+        <v>14929</v>
       </c>
       <c r="D819" t="n">
         <v>2491</v>
       </c>
       <c r="E819" t="n">
-        <v>82089300</v>
+        <v>82140947</v>
       </c>
       <c r="F819" t="inlineStr">
         <is>
@@ -46657,13 +46657,13 @@
         </is>
       </c>
       <c r="C907" t="n">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="D907" t="n">
         <v>486</v>
       </c>
       <c r="E907" t="n">
-        <v>13887813</v>
+        <v>13897813</v>
       </c>
       <c r="F907" t="inlineStr">
         <is>
@@ -48748,13 +48748,13 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>19073</v>
+        <v>19074</v>
       </c>
       <c r="D948" t="n">
         <v>3311</v>
       </c>
       <c r="E948" t="n">
-        <v>93868358</v>
+        <v>93883351</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -5194,13 +5194,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>25842</v>
+        <v>25843</v>
       </c>
       <c r="D94" t="n">
         <v>4834</v>
       </c>
       <c r="E94" t="n">
-        <v>122619785</v>
+        <v>122619902</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -24523,13 +24523,13 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D473" t="n">
         <v>66</v>
       </c>
       <c r="E473" t="n">
-        <v>18988775</v>
+        <v>18993452</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416857</v>
+        <v>416865</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725600263</v>
+        <v>725631662</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292254</v>
+        <v>292265</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1773475672</v>
+        <v>1773543950</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230808</v>
+        <v>230831</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1824535259</v>
+        <v>1825300300</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12262</v>
+        <v>12263</v>
       </c>
       <c r="D491" t="n">
         <v>1839</v>
       </c>
       <c r="E491" t="n">
-        <v>76195954</v>
+        <v>76204454</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184283</v>
+        <v>184285</v>
       </c>
       <c r="D505" t="n">
         <v>27740</v>
       </c>
       <c r="E505" t="n">
-        <v>332791036</v>
+        <v>332793712</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62279</v>
+        <v>62280</v>
       </c>
       <c r="D509" t="n">
         <v>11318</v>
       </c>
       <c r="E509" t="n">
-        <v>299998072</v>
+        <v>300008072</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71230</v>
+        <v>71231</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287883309</v>
+        <v>287899455</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>142812</v>
+        <v>142813</v>
       </c>
       <c r="D514" t="n">
         <v>23613</v>
       </c>
       <c r="E514" t="n">
-        <v>244603015</v>
+        <v>244607005</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56115</v>
+        <v>56119</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254248879</v>
+        <v>254477846</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -38905,13 +38905,13 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>17103</v>
+        <v>17104</v>
       </c>
       <c r="D755" t="n">
         <v>3864</v>
       </c>
       <c r="E755" t="n">
-        <v>30426330</v>
+        <v>30427037</v>
       </c>
       <c r="F755" t="inlineStr">
         <is>
@@ -43240,13 +43240,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>95919</v>
+        <v>95923</v>
       </c>
       <c r="D840" t="n">
         <v>22285</v>
       </c>
       <c r="E840" t="n">
-        <v>162875680</v>
+        <v>162893468</v>
       </c>
       <c r="F840" t="inlineStr">
         <is>
@@ -45127,13 +45127,13 @@
         </is>
       </c>
       <c r="C877" t="n">
-        <v>27962</v>
+        <v>27963</v>
       </c>
       <c r="D877" t="n">
         <v>5685</v>
       </c>
       <c r="E877" t="n">
-        <v>148323058</v>
+        <v>148348599</v>
       </c>
       <c r="F877" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -4276,13 +4276,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>28523</v>
+        <v>28524</v>
       </c>
       <c r="D76" t="n">
         <v>5076</v>
       </c>
       <c r="E76" t="n">
-        <v>158511720</v>
+        <v>158513706</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62520</v>
+        <v>62521</v>
       </c>
       <c r="D108" t="n">
         <v>10955</v>
       </c>
       <c r="E108" t="n">
-        <v>340718916</v>
+        <v>340824916</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -14323,13 +14323,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>9012</v>
+        <v>9013</v>
       </c>
       <c r="D273" t="n">
         <v>1763</v>
       </c>
       <c r="E273" t="n">
-        <v>43996444</v>
+        <v>43997558</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -15700,13 +15700,13 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D300" t="n">
         <v>140</v>
       </c>
       <c r="E300" t="n">
-        <v>2143959</v>
+        <v>2148839</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416865</v>
+        <v>416877</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725631662</v>
+        <v>725673933</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292265</v>
+        <v>292272</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1773543950</v>
+        <v>1773620414</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230831</v>
+        <v>230838</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1825300300</v>
+        <v>1825336582</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12263</v>
+        <v>12264</v>
       </c>
       <c r="D491" t="n">
         <v>1839</v>
       </c>
       <c r="E491" t="n">
-        <v>76204454</v>
+        <v>76210942</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -25798,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>40861</v>
+        <v>40862</v>
       </c>
       <c r="D498" t="n">
         <v>7972</v>
       </c>
       <c r="E498" t="n">
-        <v>194560267</v>
+        <v>194563530</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -25951,13 +25951,13 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>38092</v>
+        <v>38093</v>
       </c>
       <c r="D501" t="n">
         <v>6578</v>
       </c>
       <c r="E501" t="n">
-        <v>177177763</v>
+        <v>177195321</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184285</v>
+        <v>184286</v>
       </c>
       <c r="D505" t="n">
         <v>27740</v>
       </c>
       <c r="E505" t="n">
-        <v>332793712</v>
+        <v>332794795</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12412</v>
+        <v>12415</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40642757</v>
+        <v>40796744</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -4837,13 +4837,13 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>14393</v>
+        <v>14396</v>
       </c>
       <c r="D87" t="n">
         <v>2776</v>
       </c>
       <c r="E87" t="n">
-        <v>69668520</v>
+        <v>69906768</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18886</v>
+        <v>18887</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75390235</v>
+        <v>75398735</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>14444</v>
+        <v>14445</v>
       </c>
       <c r="D437" t="n">
         <v>2514</v>
       </c>
       <c r="E437" t="n">
-        <v>69138920</v>
+        <v>69140309</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>164680</v>
+        <v>164681</v>
       </c>
       <c r="D468" t="n">
         <v>27310</v>
       </c>
       <c r="E468" t="n">
-        <v>287073022</v>
+        <v>287076083</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416877</v>
+        <v>416881</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725673933</v>
+        <v>725689640</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -24982,13 +24982,13 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="D482" t="n">
         <v>521</v>
       </c>
       <c r="E482" t="n">
-        <v>69926240</v>
+        <v>70025974</v>
       </c>
       <c r="F482" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292272</v>
+        <v>292283</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1773620414</v>
+        <v>1773972077</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230838</v>
+        <v>230850</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1825336582</v>
+        <v>1825607255</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="D489" t="n">
         <v>608</v>
       </c>
       <c r="E489" t="n">
-        <v>8209283</v>
+        <v>8219283</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12264</v>
+        <v>12265</v>
       </c>
       <c r="D491" t="n">
         <v>1839</v>
       </c>
       <c r="E491" t="n">
-        <v>76210942</v>
+        <v>76213503</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71231</v>
+        <v>71235</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287899455</v>
+        <v>287939455</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56119</v>
+        <v>56120</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254477846</v>
+        <v>254526317</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -29062,13 +29062,13 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D562" t="n">
         <v>96</v>
       </c>
       <c r="E562" t="n">
-        <v>1651122</v>
+        <v>1818521</v>
       </c>
       <c r="F562" t="inlineStr">
         <is>
@@ -29419,13 +29419,13 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>26823</v>
+        <v>26825</v>
       </c>
       <c r="D569" t="n">
         <v>4899</v>
       </c>
       <c r="E569" t="n">
-        <v>143195904</v>
+        <v>143198904</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -31255,13 +31255,13 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>15338</v>
+        <v>15339</v>
       </c>
       <c r="D605" t="n">
         <v>2689</v>
       </c>
       <c r="E605" t="n">
-        <v>88151271</v>
+        <v>88218286</v>
       </c>
       <c r="F605" t="inlineStr">
         <is>
@@ -35845,13 +35845,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>11039</v>
+        <v>11041</v>
       </c>
       <c r="D695" t="n">
         <v>2194</v>
       </c>
       <c r="E695" t="n">
-        <v>49064700</v>
+        <v>49084051</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -43240,13 +43240,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>95923</v>
+        <v>95924</v>
       </c>
       <c r="D840" t="n">
         <v>22285</v>
       </c>
       <c r="E840" t="n">
-        <v>162893468</v>
+        <v>162899677</v>
       </c>
       <c r="F840" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -4276,13 +4276,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>28524</v>
+        <v>28525</v>
       </c>
       <c r="D76" t="n">
         <v>5076</v>
       </c>
       <c r="E76" t="n">
-        <v>158513706</v>
+        <v>158516906</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -6520,13 +6520,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D120" t="n">
         <v>50</v>
       </c>
       <c r="E120" t="n">
-        <v>17766743</v>
+        <v>17922450</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -11161,13 +11161,13 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>63737</v>
+        <v>63739</v>
       </c>
       <c r="D211" t="n">
         <v>14443</v>
       </c>
       <c r="E211" t="n">
-        <v>114036381</v>
+        <v>114044179</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -12793,13 +12793,13 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>10447</v>
+        <v>10448</v>
       </c>
       <c r="D243" t="n">
         <v>2230</v>
       </c>
       <c r="E243" t="n">
-        <v>48599965</v>
+        <v>48612218</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18887</v>
+        <v>18888</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75398735</v>
+        <v>75401391</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -23962,13 +23962,13 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D462" t="n">
         <v>68</v>
       </c>
       <c r="E462" t="n">
-        <v>2643564</v>
+        <v>2699633</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416881</v>
+        <v>416894</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725689640</v>
+        <v>725748306</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292283</v>
+        <v>292299</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1773972077</v>
+        <v>1774119871</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230850</v>
+        <v>230859</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1825607255</v>
+        <v>1825764772</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>12265</v>
+        <v>12266</v>
       </c>
       <c r="D491" t="n">
         <v>1839</v>
       </c>
       <c r="E491" t="n">
-        <v>76213503</v>
+        <v>76214580</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62280</v>
+        <v>62285</v>
       </c>
       <c r="D509" t="n">
         <v>11318</v>
       </c>
       <c r="E509" t="n">
-        <v>300008072</v>
+        <v>300051872</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -27481,13 +27481,13 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>98239</v>
+        <v>98242</v>
       </c>
       <c r="D531" t="n">
         <v>19246</v>
       </c>
       <c r="E531" t="n">
-        <v>165247160</v>
+        <v>165251000</v>
       </c>
       <c r="F531" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12415</v>
+        <v>12417</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40796744</v>
+        <v>40823580</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -42577,13 +42577,13 @@
         </is>
       </c>
       <c r="C827" t="n">
-        <v>13241</v>
+        <v>13242</v>
       </c>
       <c r="D827" t="n">
         <v>2826</v>
       </c>
       <c r="E827" t="n">
-        <v>58212691</v>
+        <v>58226189</v>
       </c>
       <c r="F827" t="inlineStr">
         <is>
@@ -43546,13 +43546,13 @@
         </is>
       </c>
       <c r="C846" t="n">
-        <v>18589</v>
+        <v>18595</v>
       </c>
       <c r="D846" t="n">
         <v>3371</v>
       </c>
       <c r="E846" t="n">
-        <v>120348583</v>
+        <v>120357583</v>
       </c>
       <c r="F846" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79099</v>
+        <v>79100</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>392127142</v>
+        <v>392137142</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -48748,13 +48748,13 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>19074</v>
+        <v>19076</v>
       </c>
       <c r="D948" t="n">
         <v>3311</v>
       </c>
       <c r="E948" t="n">
-        <v>93883351</v>
+        <v>93888037</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10054</v>
+        <v>10055</v>
       </c>
       <c r="D8" t="n">
         <v>2021</v>
       </c>
       <c r="E8" t="n">
-        <v>53671179</v>
+        <v>53869679</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="D17" t="n">
         <v>831</v>
       </c>
       <c r="E17" t="n">
-        <v>22872757</v>
+        <v>22874327</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -4939,13 +4939,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="D89" t="n">
         <v>461</v>
       </c>
       <c r="E89" t="n">
-        <v>11330739</v>
+        <v>11400344</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -16006,13 +16006,13 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>6086</v>
+        <v>6088</v>
       </c>
       <c r="D306" t="n">
         <v>1239</v>
       </c>
       <c r="E306" t="n">
-        <v>26909084</v>
+        <v>26912084</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -23197,13 +23197,13 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>15005</v>
+        <v>15006</v>
       </c>
       <c r="D447" t="n">
         <v>2811</v>
       </c>
       <c r="E447" t="n">
-        <v>88555462</v>
+        <v>88563760</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74999</v>
+        <v>75000</v>
       </c>
       <c r="D474" t="n">
         <v>11550</v>
       </c>
       <c r="E474" t="n">
-        <v>435645809</v>
+        <v>435828276</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416894</v>
+        <v>416901</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725748306</v>
+        <v>725773950</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292299</v>
+        <v>292306</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1774119871</v>
+        <v>1774412652</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230859</v>
+        <v>230869</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1825764772</v>
+        <v>1826138763</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184286</v>
+        <v>184288</v>
       </c>
       <c r="D505" t="n">
         <v>27740</v>
       </c>
       <c r="E505" t="n">
-        <v>332794795</v>
+        <v>332795563</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62285</v>
+        <v>62288</v>
       </c>
       <c r="D509" t="n">
         <v>11318</v>
       </c>
       <c r="E509" t="n">
-        <v>300051872</v>
+        <v>300088349</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>142813</v>
+        <v>142816</v>
       </c>
       <c r="D514" t="n">
         <v>23613</v>
       </c>
       <c r="E514" t="n">
-        <v>244607005</v>
+        <v>244623334</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -37324,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D724" t="n">
         <v>92</v>
       </c>
       <c r="E724" t="n">
-        <v>436248</v>
+        <v>436408</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -43444,13 +43444,13 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>58395</v>
+        <v>58396</v>
       </c>
       <c r="D844" t="n">
         <v>11375</v>
       </c>
       <c r="E844" t="n">
-        <v>290434195</v>
+        <v>290451789</v>
       </c>
       <c r="F844" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3256,13 +3256,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>97647</v>
+        <v>97651</v>
       </c>
       <c r="D56" t="n">
         <v>18772</v>
       </c>
       <c r="E56" t="n">
-        <v>200357223</v>
+        <v>200368143</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3868,13 +3868,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D68" t="n">
         <v>299</v>
       </c>
       <c r="E68" t="n">
-        <v>16009548</v>
+        <v>16082974</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5500,13 +5500,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>186366</v>
+        <v>186370</v>
       </c>
       <c r="D100" t="n">
         <v>37749</v>
       </c>
       <c r="E100" t="n">
-        <v>306318612</v>
+        <v>306320428</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -11059,13 +11059,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D209" t="n">
         <v>169</v>
       </c>
       <c r="E209" t="n">
-        <v>1821108</v>
+        <v>1829608</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -20137,13 +20137,13 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>25231</v>
+        <v>25232</v>
       </c>
       <c r="D387" t="n">
         <v>5301</v>
       </c>
       <c r="E387" t="n">
-        <v>46082220</v>
+        <v>46083671</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416901</v>
+        <v>416913</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725773950</v>
+        <v>725804313</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292306</v>
+        <v>292311</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1774412652</v>
+        <v>1774499477</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230869</v>
+        <v>230878</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1826138763</v>
+        <v>1826241241</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -25339,13 +25339,13 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="D489" t="n">
         <v>608</v>
       </c>
       <c r="E489" t="n">
-        <v>8219283</v>
+        <v>8220251</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71235</v>
+        <v>71242</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287939455</v>
+        <v>288034966</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73213</v>
+        <v>73214</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367251020</v>
+        <v>367268472</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -35692,13 +35692,13 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>24463</v>
+        <v>24464</v>
       </c>
       <c r="D692" t="n">
         <v>5606</v>
       </c>
       <c r="E692" t="n">
-        <v>41135126</v>
+        <v>41136626</v>
       </c>
       <c r="F692" t="inlineStr">
         <is>
@@ -47065,13 +47065,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>96860</v>
+        <v>96861</v>
       </c>
       <c r="D915" t="n">
         <v>17575</v>
       </c>
       <c r="E915" t="n">
-        <v>463326582</v>
+        <v>463328082</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3868,13 +3868,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1799</v>
+        <v>1801</v>
       </c>
       <c r="D68" t="n">
         <v>299</v>
       </c>
       <c r="E68" t="n">
-        <v>16082974</v>
+        <v>16177228</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>62521</v>
+        <v>62522</v>
       </c>
       <c r="D108" t="n">
         <v>10955</v>
       </c>
       <c r="E108" t="n">
-        <v>340824916</v>
+        <v>340826059</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>88479</v>
+        <v>88481</v>
       </c>
       <c r="D114" t="n">
         <v>14314</v>
       </c>
       <c r="E114" t="n">
-        <v>216769579</v>
+        <v>216771469</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -9886,13 +9886,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>20400</v>
+        <v>20401</v>
       </c>
       <c r="D186" t="n">
         <v>4510</v>
       </c>
       <c r="E186" t="n">
-        <v>37276429</v>
+        <v>37283999</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10855,13 +10855,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>29942</v>
+        <v>29943</v>
       </c>
       <c r="D205" t="n">
         <v>5716</v>
       </c>
       <c r="E205" t="n">
-        <v>156350725</v>
+        <v>156354303</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -14323,13 +14323,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>9013</v>
+        <v>9014</v>
       </c>
       <c r="D273" t="n">
         <v>1763</v>
       </c>
       <c r="E273" t="n">
-        <v>43997558</v>
+        <v>44007558</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -19984,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>16793</v>
+        <v>16794</v>
       </c>
       <c r="D384" t="n">
         <v>3259</v>
       </c>
       <c r="E384" t="n">
-        <v>80758794</v>
+        <v>80766759</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71283</v>
+        <v>71284</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110329263</v>
+        <v>110329804</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416913</v>
+        <v>416914</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725804313</v>
+        <v>725809513</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292311</v>
+        <v>292321</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1774499477</v>
+        <v>1774573175</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230878</v>
+        <v>230879</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1826241241</v>
+        <v>1826249741</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184288</v>
+        <v>184293</v>
       </c>
       <c r="D505" t="n">
         <v>27740</v>
       </c>
       <c r="E505" t="n">
-        <v>332795563</v>
+        <v>332817882</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71242</v>
+        <v>71243</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>288034966</v>
+        <v>288040443</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>142816</v>
+        <v>142817</v>
       </c>
       <c r="D514" t="n">
         <v>23613</v>
       </c>
       <c r="E514" t="n">
-        <v>244623334</v>
+        <v>244624422</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56120</v>
+        <v>56121</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254526317</v>
+        <v>254530720</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39935</v>
+        <v>39937</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60390275</v>
+        <v>60395303</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12417</v>
+        <v>12418</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40823580</v>
+        <v>40886248</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -31153,13 +31153,13 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>32191</v>
+        <v>32195</v>
       </c>
       <c r="D603" t="n">
         <v>6079</v>
       </c>
       <c r="E603" t="n">
-        <v>170496846</v>
+        <v>170515907</v>
       </c>
       <c r="F603" t="inlineStr">
         <is>
@@ -34009,13 +34009,13 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>163439</v>
+        <v>163440</v>
       </c>
       <c r="D659" t="n">
         <v>36203</v>
       </c>
       <c r="E659" t="n">
-        <v>278442560</v>
+        <v>278453766</v>
       </c>
       <c r="F659" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73214</v>
+        <v>73216</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367268472</v>
+        <v>367284869</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -35845,13 +35845,13 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>11041</v>
+        <v>11042</v>
       </c>
       <c r="D695" t="n">
         <v>2194</v>
       </c>
       <c r="E695" t="n">
-        <v>49084051</v>
+        <v>49094051</v>
       </c>
       <c r="F695" t="inlineStr">
         <is>
@@ -46351,13 +46351,13 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>81813</v>
+        <v>81815</v>
       </c>
       <c r="D901" t="n">
         <v>13203</v>
       </c>
       <c r="E901" t="n">
-        <v>443486042</v>
+        <v>443594102</v>
       </c>
       <c r="F901" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>59762</v>
+        <v>59763</v>
       </c>
       <c r="D904" t="n">
         <v>8975</v>
       </c>
       <c r="E904" t="n">
-        <v>334901835</v>
+        <v>334975610</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -17077,13 +17077,13 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>47895</v>
+        <v>47896</v>
       </c>
       <c r="D327" t="n">
         <v>9068</v>
       </c>
       <c r="E327" t="n">
-        <v>240516423</v>
+        <v>240517923</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>20239</v>
+        <v>20242</v>
       </c>
       <c r="D435" t="n">
         <v>4036</v>
       </c>
       <c r="E435" t="n">
-        <v>93052831</v>
+        <v>93071137</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -23350,13 +23350,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>31296</v>
+        <v>31297</v>
       </c>
       <c r="D450" t="n">
         <v>6840</v>
       </c>
       <c r="E450" t="n">
-        <v>56269150</v>
+        <v>56270143</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416914</v>
+        <v>416915</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725809513</v>
+        <v>725811913</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292321</v>
+        <v>292325</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1774573175</v>
+        <v>1774686302</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230879</v>
+        <v>230881</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1826249741</v>
+        <v>1826257585</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62288</v>
+        <v>62315</v>
       </c>
       <c r="D509" t="n">
         <v>11318</v>
       </c>
       <c r="E509" t="n">
-        <v>300088349</v>
+        <v>300345746</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71243</v>
+        <v>71247</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>288040443</v>
+        <v>288063274</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25088</v>
+        <v>25089</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92615653</v>
+        <v>92639151</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -45994,13 +45994,13 @@
         </is>
       </c>
       <c r="C894" t="n">
-        <v>167281</v>
+        <v>167282</v>
       </c>
       <c r="D894" t="n">
         <v>30742</v>
       </c>
       <c r="E894" t="n">
-        <v>280779528</v>
+        <v>280782685</v>
       </c>
       <c r="F894" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1267,13 +1267,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="D17" t="n">
         <v>831</v>
       </c>
       <c r="E17" t="n">
-        <v>22874327</v>
+        <v>22875897</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -16210,13 +16210,13 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D310" t="n">
         <v>84</v>
       </c>
       <c r="E310" t="n">
-        <v>2925170</v>
+        <v>2926670</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>88346</v>
+        <v>88347</v>
       </c>
       <c r="D459" t="n">
         <v>16394</v>
       </c>
       <c r="E459" t="n">
-        <v>151576128</v>
+        <v>151577341</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35056</v>
+        <v>35057</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>160614201</v>
+        <v>160734389</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416915</v>
+        <v>416917</v>
       </c>
       <c r="D477" t="n">
         <v>70501</v>
       </c>
       <c r="E477" t="n">
-        <v>725811913</v>
+        <v>725821355</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292325</v>
+        <v>292331</v>
       </c>
       <c r="D484" t="n">
         <v>42568</v>
       </c>
       <c r="E484" t="n">
-        <v>1774686302</v>
+        <v>1774744802</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230881</v>
+        <v>230882</v>
       </c>
       <c r="D487" t="n">
         <v>33851</v>
       </c>
       <c r="E487" t="n">
-        <v>1826257585</v>
+        <v>1826457585</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184293</v>
+        <v>184294</v>
       </c>
       <c r="D505" t="n">
         <v>27740</v>
       </c>
       <c r="E505" t="n">
-        <v>332817882</v>
+        <v>332820232</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>62315</v>
+        <v>62361</v>
       </c>
       <c r="D509" t="n">
         <v>11318</v>
       </c>
       <c r="E509" t="n">
-        <v>300345746</v>
+        <v>300790710</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71247</v>
+        <v>71257</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>288063274</v>
+        <v>288143054</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26920,13 +26920,13 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>56121</v>
+        <v>56122</v>
       </c>
       <c r="D520" t="n">
         <v>8770</v>
       </c>
       <c r="E520" t="n">
-        <v>254530720</v>
+        <v>254594974</v>
       </c>
       <c r="F520" t="inlineStr">
         <is>
@@ -27634,13 +27634,13 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="D534" t="n">
         <v>8566</v>
       </c>
       <c r="E534" t="n">
-        <v>220326769</v>
+        <v>220337801</v>
       </c>
       <c r="F534" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18468</v>
+        <v>18471</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>74223474</v>
+        <v>74272866</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73216</v>
+        <v>73217</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367284869</v>
+        <v>367289354</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -37324,13 +37324,13 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D724" t="n">
         <v>92</v>
       </c>
       <c r="E724" t="n">
-        <v>436408</v>
+        <v>437810</v>
       </c>
       <c r="F724" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79100</v>
+        <v>79107</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>392137142</v>
+        <v>392222420</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
